--- a/database/httpshistorycznyambasadorcom.xlsx
+++ b/database/httpshistorycznyambasadorcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B255"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3489,6 +3489,54 @@
         </is>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/imperializm-cesarstwa-japonii-na-pacyfiku/</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>span class="jetpack-instant-search__path-breadcrumb-piece"imperializm-cesarstwa-japonii-na-pacyfiku/span</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/mobilnosc-wojskowa-panstw-na-wschodniej-flance-nato/</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>span class="jetpack-instant-search__path-breadcrumb-piece"mobilnosc-wojskowa-panstw-na-wschodniej-flance-nato/span</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/imperializm-cesarstwa-japonii-na-pacyfiku/</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Imperializm Cesarstwa Japonii na Pacyfiku</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/mobilnosc-wojskowa-panstw-na-wschodniej-flance-nato/</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Mobilność wojskowa państw na wschodniej flance NATO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpshistorycznyambasadorcom.xlsx
+++ b/database/httpshistorycznyambasadorcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3537,6 +3537,162 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/general-skrzypczak-u-nas-nie-docenia-sie-mobilnosci-wojsk-rosyjskich/</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>general-skrzypczak-u-nas-nie-docenia-sie-mobilnosci-wojsk-rosyjskich</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji/</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/poludniowy-teatr-operacyjny-federacji-rosyjskiej/</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>poludniowy-teatr-operacyjny-federacji-rosyjskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza/</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/general-skrzypczak-u-nas-nie-docenia-sie-mobilnosci-wojsk-rosyjskich/</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Generał Skrzypczak: U nas nie docenia się mobilności wojsk rosyjskich</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji/</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Jakie zagrożenia dla Europy niesie uzależnienie energetyczne od Rosji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/poludniowy-teatr-operacyjny-federacji-rosyjskiej/</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Południowy teatr operacyjny Federacji Rosyjskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza/</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Rosyjskie strategie działań wojennych na europejskim kierunku operacyjnym [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu/</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Militarne zdolności do projekcji siły  i zabezpieczania stref wpływu</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/muzyka-problemem-rosjan-jest-nieadekwatna-liczba-strategicznych-samolotow-transportowych-do-przerzutu-wojsk/</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Muzyka: Problemem Rosjan jest nieadekwatna liczba strategicznych samolotów transportowych do przerzutu wojsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/poludniowy-teatr-operacyjny-federacji-rosyjskiej/</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Południowy teatr operacyjny Federacji Rosyjskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/rekrutacja-do-zespolu/</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Dołącz teraz!</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza/</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Rosyjskie strategie działań wojennych na europejskim kierunku operacyjnym [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpshistorycznyambasadorcom.xlsx
+++ b/database/httpshistorycznyambasadorcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3693,6 +3693,46 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu/</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu/</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Militarne zdolności do projekcji siły i zabezpieczania stref wpływu</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://magniumthemes.com/go/purchase-inhype/</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/show/7GuZqsCXg0qOb3rde1IhdN</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpshistorycznyambasadorcom.xlsx
+++ b/database/httpshistorycznyambasadorcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3733,6 +3733,1914 @@
       </c>
       <c r="B276" t="inlineStr"/>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="#"</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Load more</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="#0"</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Zapomniałeś hasła?</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="#top"</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="////historycznyambasador.com/jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji/"</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="////historycznyambasador.com/militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu/"</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="////historycznyambasador.com/poludniowy-teatr-operacyjny-federacji-rosyjskiej/"</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>poludniowy-teatr-operacyjny-federacji-rosyjskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="////historycznyambasador.com/przemiany-polityczno-gospodarcze-w-rosji-po-upadku-zwiazku-radzieckiego/"</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>przemiany-polityczno-gospodarcze-w-rosji-po-upadku-zwiazku-radzieckiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="////historycznyambasador.com/rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza/"</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="//historycznyambasador.com/jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji/"</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Jakie zagrożenia dla Europy niesie uzależnienie energetyczne od Rosji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="//historycznyambasador.com/militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu/"</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Militarne zdolności do projekcji siły i zabezpieczania stref wpływu</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="//historycznyambasador.com/poludniowy-teatr-operacyjny-federacji-rosyjskiej/"</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Południowy teatr operacyjny Federacji Rosyjskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="//historycznyambasador.com/przemiany-polityczno-gospodarcze-w-rosji-po-upadku-zwiazku-radzieckiego/"</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Przemiany polityczno-gospodarcze w Rosji po upadku Związku Radzieckiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="//historycznyambasador.com/rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza/"</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Rosyjskie strategie działań wojennych na europejskim kierunku operacyjnym [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/"</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Strona Główna</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/agenda-polskiej-polityki-zagranicznej-a-ekspansja-biznesu/"</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Agenda polskiej polityki zagranicznej, a ekspansja biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/aktywnosc-polski-w-organizacjach-miedzynarodowych/"</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Aktywność Polski w organizacjach międzynarodowych</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/armie-najemnikow-chinskie-koneksje-w-libii/"</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Armie najemników: Chińskie koneksje w Libii</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/artykuly/"</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Artykuły</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/asymetryczne-dzialania-wzmacniajace-role-rosji-na-arenie-miedzynarodowej/"</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Asymetryczne działania wzmacniające rolę Rosji na arenie międzynarodowej</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/author/historycznyambasador/"</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>historycznyambasador</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/bezpieczenstwo-europy-nato-czy-budowa-niezaleznosci-strategicznej/"</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Bezpieczeństwo Europy – NATO czy budowa niezależności strategicznej</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/blekitna-infrastruktura-rosyjska-gra-o-wplywy/"</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Błękitna infrastruktura: Rosyjska gra o wpływy</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/bliski-wschod-jako-klucz-w-nowym-ladzie-miedzynarodowym/"</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Bliski Wschód jako klucz w nowym ładzie międzynarodowym</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/budowa-modelu-potegi-chin-i-surowcowy-neokolonializm-afryki/"</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Budowa modelu potęgi Chin i surowcowy neokolonializm Afryki</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/budowa-nowych-lancuchow-dostaw-w-eurazji-dostep-do-rynkow-w-azji/"</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Budowa nowych łańcuchów dostaw w Eurazji – dostęp do rynków w Azji</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/afryka/"</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Afryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/afryka/libia/"</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Libia</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/ameryka-poludniowa/"</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Ameryka Południowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/ameryka-poludniowa/brazylia/"</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/ameryka-poludniowa/chile/"</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/ameryka-poludniowa/kuba/"</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Kuba</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/azja-centralna/"</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Azja Centralna</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/azja-centralna/afganistan/"</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Afganistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/azja/"</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Azja</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/azja/asean/"</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ASEAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/azja/japonia/"</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/azja/korea/"</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/bliski-wschod/"</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Bliski Wschód</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/bliski-wschod/irak/"</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Irak</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/bliski-wschod/iran/"</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/bliski-wschod/izrael/"</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Izrael</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/bliski-wschod/kurdystan/"</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Kurdystan</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/bliski-wschod/syria/"</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/cesarstwo-niemieckie/"</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Cesarstwo Niemieckie</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/chiny/"</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Chiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/cyberbezpieczenstwo/"</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Cyberbezpieczeństwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/ekonomia/"</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Ekonomia</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/energetyka/"</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Energetyka</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/energetyka/gaz/"</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Gaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/energetyka/ropa/"</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/english/"</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/europa/"</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/europa/bialorus/"</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Białoruś</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/europa/francja/"</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/europa/niemcy/"</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/europa/wielka-brytania/"</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Wielka Brytania</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/geopolityczna-gra-mocarstw/"</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Geopolityczna gra mocarstw</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/geopolityka/"</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Geopolityka</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/"</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Historia</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/ii-wojna-swiatowa/"</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>II Wojna Światowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/iii-rzesza/"</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>III Rzesza</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/imperium-osmanskie/"</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Imperium Osmańskie</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/imperium-rosyjskie/"</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Imperium Rosyjskie</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/kolonializm/"</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Kolonializm</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/historia/zimna-wojna/"</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Zimna Wojna</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/imperium-brytyjskie/"</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Imperium Brytyjskie</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/interview/"</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/kaukaz/"</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Kaukaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/kurdistan/"</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Kurdistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/nato/"</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/patronaty/"</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Patronaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/polska/"</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/raport-analityczny/"</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Raport analityczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/rosja/"</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Rosja</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/terroryzm/"</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Terroryzm</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/turcja/"</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Turcja</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/usa/"</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/usa/cia/"</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>CIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/wojskowosc/"</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Wojskowość</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/wywiad/"</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Wywiad</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/wywiady/"</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Wywiady</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/category/zwiazek-radziecki/"</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Związek Radziecki</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/chinska-gra-energetyczna-na-arenie-miedzynarodowej/"</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Chińska gra energetyczna na arenie międzynarodowej</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/co-przyspieszy-wymiane-handlowa-w-polsce-kluczowe-projekty-infrastrukturalne/"</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Co przyspieszy wymianę handlową w Polsce? Kluczowe projekty infrastrukturalne</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/co-rozpoczelo-zimna-wojne-zrodla-konfliktu-stanow-zjednoczonych-i-zwiazku-radzieckiego/"</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Co rozpoczęło Zimną Wojnę? Źródła konfliktu Stanów Zjednoczonych i Związku Radzieckiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/dominacja-poteg-ladowych-historyczne-uwarunkowania/"</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Dominacja potęg lądowych: Historyczne uwarunkowania</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/dominacja-poteg-morskich-szlaki-handlowe-kapital-bankowosc-i-cykle-hegemoniczne/"</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Dominacja potęg morskich: Szlaki handlowe, kapitał, bankowość i cykle hegemoniczne</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/domination-of-land-power-historical-factors/"</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Domination of Land Power: Historical Factors</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/droga-obalenia-hegemonii-funta-i-ustanowienie-imperium-dolara/"</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Droga obalenia hegemonii funta i ustanowienie Imperium Dolara</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/energetyka-przyszlosci-dla-sektora-przemyslowego-w-polsce/"</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Energetyka przyszłości dla sektora przemysłowego w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/general-koziej-c4isr-w-dobie-geostrategicznych-wyzwan-dla-polski/"</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Generał Koziej: C4ISR w dobie geostrategicznych wyzwań dla Polski</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/general-skrzypczak-wyzwania-militarne-dla-strategii-polski-w-kontekscie-globalnej-grze-mocarstw-2/"</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Generał Skrzypczak: Wyzwania militarne dla strategii Polski w kontekście globalnej Grze Mocarstw</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/geostrategiczne-wyzwania-dla-polski/"</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Geostrategiczne wyzwania dla Polski</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/globalna-rywalizacja-o-dane-cyfrowe-kluczowe-aktywa-gospodarek-xxi-wieku/"</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Globalna rywalizacja o dane cyfrowe. Kluczowe aktywa gospodarek XXI wieku</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/globalny-koncert-mocarstw-zagrozenia-dla-hegemonii-stanow-zjednoczonych/"</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Globalny Koncert Mocarstw: Zagrożenia dla hegemonii Stanów Zjednoczonych</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/grafiki-dla-mediow/"</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Grafiki dla mediów</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/hegemonic-clash-spanish-empire-england-and-the-united-provinces-of-the-netherlands/"</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Hegemonic clash: Spanish Empire, England and the United Provinces of the  Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/hegemoniczna-rywalizacja-imperium-brytyjskiego-z-cesarstwem-niemieckim/"</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Hegemoniczna rywalizacja Imperium Brytyjskiego z Cesarstwem Niemieckim</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/hegemoniczne-starcie-imperium-hiszpanskie-anglia-i-zjednoczone-prowincje-niderlandzkie/"</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Hegemoniczne starcie: Imperium Hiszpańskie, Anglia i Zjednoczone Prowincje Niderlandzkie</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/historia-azjatyckich-poteg-japonia-wobec-podzialu-chinskiego-tortu/"</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Historia azjatyckich potęg: Japonia wobec podziału Chińskiego tortu</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/historia-chin-azjatycki-ekspansjonizm-mocarstw-zachodnich/"</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Historia Chin: Azjatycki ekspansjonizm mocarstw zachodnich</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/historia-polwysu-koreanskiego-region-mocarstwowej-rozgrywki/"</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Historia Półwyspu Koreańskiego: region mocarstwowej rozgrywki</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/history-of-the-korean-peninsula-key-region-for-great-game-of-powers-in-the-far-east/"</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>History of the Korean Peninsula: key region for Great game of powers in the Far East</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/ii-world-war-a-history-that-shaked-entire-world/"</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>II World War: A history that shaked entire world</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/imperializm-cesarstwa-japonii-na-pacyfiku/"</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Imperializm Cesarstwa Japonii na Pacyfiku</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/informator-dla-mediow/"</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Informator dla mediów</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/innowacyjna-bankowosc-a-gdzie-przedsiebiorcy/"</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Innowacyjna bankowość, a gdzie przedsiębiorcy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/interview-with-ambassador-of-turkish-republic-in-poland-cengiz-kamil-firat/"</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Interview with ambassador of Turkish Republic in Poland Cengiz Kamil Fırat</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/iordanidis-on-new-pax-mediterranean-and-greek-turkish-dispute-interview/"</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Iordanidis on new Pax Mediterranean and Greek-Turkish dispute [Interview]</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/iran-poczatek-tajnych-operacji/"</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Iran: Początek tajnych operacji CIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/istota-bliskiego-wschodu-w-rywalizacji-mocarstw/"</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Istota Bliskiego Wschodu w rywalizacji mocarstw</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/jakie-zagrozenia-dla-europy-niesie-uzaleznienie-energetyczne-od-rosji/"</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Jakie zagrożenia dla Europy niesie uzależnienie energetyczne od Rosji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/kaddafi-postrach-zachodniego-systemu/"</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Kaddafi: postrach zachodniego systemu</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/kaddafi-wrog-czy-sprzymierzeniec-historia-libii/"</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Kaddafi: wróg czy sprzymierzeniec? Historia Libii</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/konferencja-geopolityczna-gra-mocarstw-2/"</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Konferencja 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/konferencja-geopolityczna-gra-mocarstw-wypowiedzi-ekspertow/"</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Wystąpienia prelegentów</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/konferencja-geopolityczna-gra-mocarstw-wyzwania-dla-nowego-swiatowego-ladu-gospodarczego/"</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Konferencja 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/konferencja-geopolityczna-gra-mocarstw/"</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Konferencja 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/kontynentalna-polityka-napoleona-bonaparte/"</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Kontynentalna polityka Napoleona Bonaparte</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/ksiazka/"</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Książka</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/kurdish-dream-independence-meeting-with-a-kurdistan-representative-in-poland/"</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Kurdish dream - Independence. Meeting with a Kurdistan Representative in Poland</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/kurdyjski-sen-niepodleglosc-spotkanie-z-przedstawicielem-kurdystanu-w-polsce/"</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Kurdyjski sen - niepodległość: Spotkanie z przedstawicielem Kurdystanu w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/media-pisza-o-nas/"</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Media piszą o nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/militarne-zdolnosci-do-projekcji-sily-i-zabezpieczania-stref-wplywu/"</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Militarne zdolności do projekcji siły  i zabezpieczania stref wpływu</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/mobilnosc-wojskowa-panstw-na-wschodniej-flance-nato/"</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Mobilność wojskowa państw na wschodniej flance NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/muzyka-problemem-rosjan-jest-nieadekwatna-liczba-strategicznych-samolotow-transportowych-do-przerzutu-wojsk/"</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Muzyka: Problemem Rosjan jest nieadekwatna liczba strategicznych samolotów transportowych do przerzutu wojsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/nabor-esejow-do-zeszytu-naukowego-geopolityczna-gra-mocarstw/"</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Napisz rozdział do Zeszytu Naukowego</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/nastepstwa-wojny-w-afganistanie-powstanie-dzisiejszych-stron-konfliktu-w-syrii/"</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Następstwa wojny w Afganistanie. Powstanie dzisiejszych stron konfliktu w Syrii</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/o-mnie/"</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>O mnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/partnerzy/"</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Partnerzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/patronat-honorowy/"</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Patronat honorowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/patronat-medialny/"</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Patronat medialny</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/patronat-merytoryczny/"</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Patronat merytoryczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/poczatek-zimnej-wojny-na-kubie-desant-w-zatoce-swin/"</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Początek Zimnej Wojny na Kubie: Desant w Zatoce Świń</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/podcasty/"</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Podcasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/policentryzacja-swiata-wg-mocarstw-eurazja/"</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Policentryzacja świata wg. mocarstw: Eurazja</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/przebieg-wojny-w-afganistanie-kluczem-do-zrozumienia-obecnej-geopolityki/"</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Przebieg wojny w Afganistanie kluczem do zrozumienia obecnej geopolityki</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/przyszlosc-regul-fiskalnych-w-unii-europejskiej/"</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Przyszłość reguł fiskalnych w Unii Europejskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/quiz/"</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Kliknij tutaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/regionalna-mocarstwowosc-polski/"</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Regionalna mocarstwowość Polski</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/rekrutacja-do-zespolu/"</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Dołącz teraz!</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/rosja-kontrola-azjatyckiej-bliskiej-zagranicy-poprzez-projekty-energetyczne/"</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Rosja: Kontrola azjatyckiej Bliskiej Zagranicy poprzez projekty energetyczne</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/rosyjskie-wojenne-dzialania-na-europejskim-kierunku-operacyjnym-analiza/"</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Rosyjskie strategie działań wojennych na europejskim kierunku operacyjnym [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/sekrety-kryzysu-kubanskiego-walka-o-swiatowa-dominacje/"</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Sekrety Kryzysu Kubańskiego. Walka o światową dominację</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/the-challanges-for-independent-kurdistan-interview-with-an-expert/"</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>The challanges for independent Kurdistan [Interview with an expert]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/the-way-to-overthrow-pounds-hegemony-and-establishment-of-the-dollar-empire/"</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>The way to overthrow Pound's hegemony and establishment of the Dollar empire</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/what-started-a-cold-war-sources-of-the-conflict-of-the-united-states-and-the-soviet-union/"</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>What started a Cold War? Sources of the conflict between The United States and The Soviet Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/wojna-w-afganistanie-poczatek-zbrojnych-ruchow-islamistow/"</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Wojna w Afganistanie: Początek zbrojnych ruchów islamistów</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/wspieraj-historycznego-ambasadora/"</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Wspieraj blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/wystapienia-prelegentow-budowa-spojnego-europejskiego-systemu-bezpieczenstwa/"</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Wystąpienia prelegentów</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/wywiad-z-ministrem-spraw-zagranicznych-rp-radoslawem-sikorskim/"</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Wywiad z Ministrem Spraw Zagranicznych RP Radosławem Sikorskim</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/wywiady/"</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Wywiady</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/wyzwania-dla-osiagniecia-niepodleglosci-przez-kurdystan-wywiad-z-ekspertem/"</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Wyzwania dla osiągnięcia niepodległości przez Kurdystan [wywiad z ekspertem]</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://historycznyambasador.com/zalozenia-multi-domain-battle-concept-dla-wojska-polskiego/"</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Założenia Multi-domain battle concept dla Wojska Polskiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://magniumthemes.com/go/purchase-inhype/"</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://open.spotify.com/show/7GuZqsCXg0qOb3rde1IhdN"</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://twitter.com/HistorAmbasador"</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://www.facebook.com/historyczny.ambasador/"</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://www.linkedin.com/company/historyczny-ambasador"</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>O mnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="https://www.youtube.com/c/HistorycznyAmbasador"</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/href="mailto:office@historycznyambasador.com"</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Skontaktuj się z nami</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpshistorycznyambasadorcom.xlsx
+++ b/database/httpshistorycznyambasadorcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5641,6 +5641,138 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/agenda-polskiej-polityki-zagranicznej-a-ekspansja-biznesu/</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>agenda-polskiej-polityki-zagranicznej-a-ekspansja-biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/aktywnosc-polski-w-organizacjach-miedzynarodowych/</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>aktywnosc-polski-w-organizacjach-miedzynarodowych</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/bezpieczenstwo-europy-nato-czy-budowa-niezaleznosci-strategicznej/</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>bezpieczenstwo-europy-nato-czy-budowa-niezaleznosci-strategicznej</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/innowacyjna-bankowosc-a-gdzie-przedsiebiorcy/</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>innowacyjna-bankowosc-a-gdzie-przedsiebiorcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com////historycznyambasador.com/przyszlosc-regul-fiskalnych-w-unii-europejskiej/</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>przyszlosc-regul-fiskalnych-w-unii-europejskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/agenda-polskiej-polityki-zagranicznej-a-ekspansja-biznesu/</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Agenda polskiej polityki zagranicznej, a ekspansja biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/aktywnosc-polski-w-organizacjach-miedzynarodowych/</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Aktywność Polski w organizacjach międzynarodowych</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/bezpieczenstwo-europy-nato-czy-budowa-niezaleznosci-strategicznej/</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Bezpieczeństwo Europy – NATO czy budowa niezależności strategicznej</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/innowacyjna-bankowosc-a-gdzie-przedsiebiorcy/</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Innowacyjna bankowość, a gdzie przedsiębiorcy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com//historycznyambasador.com/przyszlosc-regul-fiskalnych-w-unii-europejskiej/</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Przyszłość reguł fiskalnych w Unii Europejskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://historycznyambasador.com/armie-najemnikow-chinskie-koneksje-w-libii/</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Armie najemników: Chińskie koneksje w Libii</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
